--- a/テスト指示書Ver3.xlsx
+++ b/テスト指示書Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="822" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB51B432-9329-4C8B-97C4-698081367B38}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA36F99-2532-4161-B3DD-65F56BC96955}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="1437">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -20022,10 +20022,418 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>前へ戻るになってる</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLサーバとの接続停止してからアカウント権限の下の右側にある「削除する」ボタンをクリック</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-32</t>
+  </si>
+  <si>
+    <t>7-33</t>
+  </si>
+  <si>
+    <t>7-34</t>
+  </si>
+  <si>
+    <t>7-35</t>
+  </si>
+  <si>
+    <t>7-36</t>
+  </si>
+  <si>
+    <t>7-37</t>
+  </si>
+  <si>
+    <t>7-38</t>
+  </si>
+  <si>
+    <t>7-39</t>
+  </si>
+  <si>
+    <t>7-40</t>
+  </si>
+  <si>
+    <t>7-41</t>
+  </si>
+  <si>
+    <t>7-42</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント削除画面へ移行</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③/196</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント削除画面へ移行されている</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ロクガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除画面中央右側にある1番上の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある2番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある3番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある4番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある5番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある6番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある7番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある8番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある9番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある10番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある11番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面中央右側にある12番目の欄を確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>9-6</t>
-  </si>
-  <si>
-    <t>③/184</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -20209,7 +20617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -20427,6 +20835,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20710,8 +21121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -20943,7 +21354,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="C13" s="2" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -21039,8 +21450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768991BB-26A1-401A-B641-5DABCE72A30E}">
   <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A89"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -21054,7 +21465,7 @@
     <col min="7" max="7" width="9" style="6" customWidth="1"/>
     <col min="8" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="4" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21121,7 +21532,9 @@
       <c r="I2" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
@@ -21146,11 +21559,15 @@
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45910</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
@@ -21175,11 +21592,15 @@
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45910</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -21204,11 +21625,15 @@
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45910</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="56.25">
@@ -21233,11 +21658,15 @@
       <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>45910</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
@@ -21262,11 +21691,15 @@
       <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>45910</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="56.25">
@@ -21291,11 +21724,15 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>45910</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="70"/>
+      <c r="J8" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="56.25">
@@ -21320,11 +21757,15 @@
       <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>45910</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="56.25">
@@ -21349,11 +21790,15 @@
       <c r="G10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>45910</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="56.25">
@@ -21378,11 +21823,15 @@
       <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>45910</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="56.25">
@@ -21407,11 +21856,15 @@
       <c r="G12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>45910</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="70"/>
+      <c r="J12" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="56.25">
@@ -21436,11 +21889,15 @@
       <c r="G13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>45910</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="56.25">
@@ -21465,11 +21922,15 @@
       <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>45910</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" ht="56.25">
@@ -21494,11 +21955,15 @@
       <c r="G15" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>45910</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="70"/>
+      <c r="J15" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" ht="56.25">
@@ -21523,11 +21988,15 @@
       <c r="G16" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>45910</v>
+      </c>
       <c r="I16" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" ht="56.25">
@@ -21552,11 +22021,15 @@
       <c r="G17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>45910</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="70"/>
+      <c r="J17" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" ht="56.25">
@@ -21581,11 +22054,15 @@
       <c r="G18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <v>45910</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J18" s="70"/>
+      <c r="J18" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" ht="56.25">
@@ -21610,11 +22087,15 @@
       <c r="G19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>45910</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" ht="56.25">
@@ -21639,11 +22120,15 @@
       <c r="G20" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>45910</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="70"/>
+      <c r="J20" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" ht="56.25">
@@ -21668,11 +22153,15 @@
       <c r="G21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <v>45910</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="70"/>
+      <c r="J21" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="56.25">
@@ -21697,11 +22186,15 @@
       <c r="G22" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5">
+        <v>45910</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" ht="56.25">
@@ -21726,11 +22219,15 @@
       <c r="G23" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>45910</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="70"/>
+      <c r="J23" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="56.25">
@@ -21755,11 +22252,15 @@
       <c r="G24" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>45910</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J24" s="70"/>
+      <c r="J24" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" ht="56.25">
@@ -21784,11 +22285,15 @@
       <c r="G25" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <v>45910</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" ht="56.25">
@@ -21813,11 +22318,15 @@
       <c r="G26" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>45910</v>
+      </c>
       <c r="I26" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="70"/>
+      <c r="J26" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" ht="56.25">
@@ -21842,11 +22351,15 @@
       <c r="G27" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>45910</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="70"/>
+      <c r="J27" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" ht="56.25">
@@ -21871,11 +22384,15 @@
       <c r="G28" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>45910</v>
+      </c>
       <c r="I28" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="70"/>
+      <c r="J28" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" ht="75">
@@ -21900,11 +22417,15 @@
       <c r="G29" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="5">
+        <v>45910</v>
+      </c>
       <c r="I29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="70"/>
+      <c r="J29" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" ht="56.25">
@@ -21929,11 +22450,15 @@
       <c r="G30" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>45910</v>
+      </c>
       <c r="I30" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J30" s="70"/>
+      <c r="J30" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" ht="37.5">
@@ -21958,11 +22483,15 @@
       <c r="G31" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>45910</v>
+      </c>
       <c r="I31" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J31" s="70"/>
+      <c r="J31" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" ht="56.25">
@@ -35076,8 +35605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75208E-756F-417E-A771-63BEC3039981}">
   <dimension ref="A1:K688"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B62"/>
+    <sheetView topLeftCell="F60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -37081,11 +37610,15 @@
       <c r="G62" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H62" s="66"/>
+      <c r="H62" s="78">
+        <v>45910</v>
+      </c>
       <c r="I62" s="67" t="s">
         <v>900</v>
       </c>
-      <c r="J62" s="66"/>
+      <c r="J62" s="66" t="s">
+        <v>245</v>
+      </c>
       <c r="K62" s="68"/>
     </row>
     <row r="63" spans="1:11">
@@ -41910,8 +42443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF41CC9-9440-4460-AA74-67B3716224DA}">
   <dimension ref="A1:K690"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A31"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -42018,11 +42551,15 @@
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45910</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
@@ -42047,11 +42584,15 @@
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45910</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -42076,11 +42617,15 @@
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45910</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="37.5">
@@ -42105,11 +42650,15 @@
       <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>45910</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="37.5">
@@ -42134,11 +42683,15 @@
       <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>45910</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="37.5">
@@ -42163,11 +42716,15 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>45910</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="37.5">
@@ -42192,11 +42749,15 @@
       <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>45910</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="37.5">
@@ -42221,11 +42782,15 @@
       <c r="G10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>45910</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="37.5">
@@ -42250,11 +42815,15 @@
       <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>45910</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="37.5">
@@ -42279,11 +42848,15 @@
       <c r="G12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>45910</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="37.5">
@@ -42308,11 +42881,15 @@
       <c r="G13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>45910</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="37.5">
@@ -42337,11 +42914,15 @@
       <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>45910</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="37.5">
@@ -42366,11 +42947,15 @@
       <c r="G15" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>45910</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="37.5">
@@ -42395,11 +42980,15 @@
       <c r="G16" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>45910</v>
+      </c>
       <c r="I16" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="37.5">
@@ -42424,11 +43013,15 @@
       <c r="G17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>45910</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="37.5">
@@ -42453,11 +43046,15 @@
       <c r="G18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <v>45910</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="37.5">
@@ -42482,11 +43079,15 @@
       <c r="G19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>45910</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="37.5">
@@ -42511,11 +43112,15 @@
       <c r="G20" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>45910</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="37.5">
@@ -42540,11 +43145,15 @@
       <c r="G21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <v>45910</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="70"/>
+      <c r="J21" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="37.5">
@@ -42569,11 +43178,15 @@
       <c r="G22" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5">
+        <v>45910</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="37.5">
@@ -42598,11 +43211,15 @@
       <c r="G23" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>45910</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="37.5">
@@ -42627,11 +43244,15 @@
       <c r="G24" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>45910</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="37.5">
@@ -42656,11 +43277,15 @@
       <c r="G25" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <v>45910</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="37.5">
@@ -42685,11 +43310,15 @@
       <c r="G26" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>45910</v>
+      </c>
       <c r="I26" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="37.5">
@@ -42714,11 +43343,15 @@
       <c r="G27" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>45910</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="37.5">
@@ -42743,11 +43376,15 @@
       <c r="G28" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>45910</v>
+      </c>
       <c r="I28" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="56.25">
@@ -42772,11 +43409,15 @@
       <c r="G29" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="5">
+        <v>45910</v>
+      </c>
       <c r="I29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="70"/>
+      <c r="J29" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" ht="37.5">
@@ -42801,11 +43442,15 @@
       <c r="G30" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>45910</v>
+      </c>
       <c r="I30" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" s="37" customFormat="1" ht="37.5">
@@ -42830,146 +43475,414 @@
       <c r="G31" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="32">
+        <v>45910</v>
+      </c>
       <c r="I31" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J31" s="36"/>
+      <c r="J31" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K31" s="35"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="3"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="48"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="3"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="48"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="3"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="3"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="49"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="3"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="49"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="3"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="49"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="3"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="3"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="3"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="3"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="3"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="3"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="48"/>
-    </row>
-    <row r="44" spans="2:11">
+    <row r="32" spans="1:11" ht="37.5">
+      <c r="A32" s="19" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="71"/>
+    </row>
+    <row r="33" spans="1:11" ht="37.5">
+      <c r="A33" s="19" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H33" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="71"/>
+    </row>
+    <row r="34" spans="1:11" ht="37.5">
+      <c r="A34" s="19" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="71"/>
+    </row>
+    <row r="35" spans="1:11" ht="37.5">
+      <c r="A35" s="19" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="71"/>
+    </row>
+    <row r="36" spans="1:11" ht="37.5">
+      <c r="A36" s="19" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" s="71"/>
+    </row>
+    <row r="37" spans="1:11" ht="37.5">
+      <c r="A37" s="19" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="71"/>
+    </row>
+    <row r="38" spans="1:11" ht="37.5">
+      <c r="A38" s="19" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K38" s="71"/>
+    </row>
+    <row r="39" spans="1:11" ht="37.5">
+      <c r="A39" s="19" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" s="71"/>
+    </row>
+    <row r="40" spans="1:11" ht="37.5">
+      <c r="A40" s="19" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="71"/>
+    </row>
+    <row r="41" spans="1:11" ht="37.5">
+      <c r="A41" s="19" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J41" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="71"/>
+    </row>
+    <row r="42" spans="1:11" ht="37.5">
+      <c r="A42" s="19" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J42" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K42" s="71"/>
+    </row>
+    <row r="43" spans="1:11" ht="56.25">
+      <c r="A43" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="5">
+        <v>45910</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="K43" s="71"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="B44" s="3"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -42980,7 +43893,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="1:11">
       <c r="B45" s="3"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -42991,7 +43904,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="1:11">
       <c r="B46" s="3"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -43002,7 +43915,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="1:11">
       <c r="B47" s="3"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -43013,7 +43926,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="1:11">
       <c r="B48" s="3"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -44974,8 +45887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82258A22-625E-48E2-AA3E-1C6F35C7EF2B}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -45049,11 +45962,15 @@
       <c r="G2" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="59">
+        <v>45910</v>
+      </c>
       <c r="I2" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11">
@@ -45078,11 +45995,15 @@
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45910</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11">
@@ -45107,11 +46028,15 @@
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45910</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -45136,11 +46061,15 @@
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45910</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="37.5">
@@ -45165,11 +46094,15 @@
       <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>45910</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
@@ -45194,12 +46127,18 @@
       <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>45910</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
+      <c r="J7" s="70" t="s">
+        <v>842</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="56.25">
       <c r="A8" s="19" t="s">
@@ -45223,11 +46162,15 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>45910</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="70"/>
+      <c r="J8" s="70" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" s="62" customFormat="1" ht="56.25">
@@ -45252,11 +46195,15 @@
       <c r="G9" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="59">
+        <v>45910</v>
+      </c>
       <c r="I9" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" s="62" customFormat="1" ht="56.25">
@@ -45281,11 +46228,15 @@
       <c r="G10" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="59">
+        <v>45910</v>
+      </c>
       <c r="I10" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="60"/>
+      <c r="J10" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="56.25">
@@ -45305,7 +46256,7 @@
         <v>1377</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>540</v>
+        <v>1408</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>241</v>
@@ -45327,8 +46278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40342565-8C06-46FF-905E-E50729D2046B}">
   <dimension ref="A1:K659"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -45402,11 +46353,15 @@
       <c r="G2" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="59">
+        <v>45910</v>
+      </c>
       <c r="I2" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
@@ -45431,11 +46386,15 @@
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45910</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
@@ -45460,11 +46419,15 @@
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45910</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -45489,11 +46452,15 @@
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45910</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="37.5">
@@ -45518,16 +46485,20 @@
       <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>45910</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" s="62" customFormat="1" ht="37.5">
       <c r="A7" s="75" t="s">
-        <v>1407</v>
+        <v>1436</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>68</v>
@@ -45547,11 +46518,15 @@
       <c r="G7" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="59">
+        <v>45910</v>
+      </c>
       <c r="I7" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="60" t="s">
+        <v>245</v>
+      </c>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11">

--- a/テスト指示書Ver3.xlsx
+++ b/テスト指示書Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="894" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA36F99-2532-4161-B3DD-65F56BC96955}"/>
+  <xr:revisionPtr revIDLastSave="969" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7013E350-40EA-414E-B3BF-C5ED3BB37FAE}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="1445">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -17059,22 +17059,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント更新確認画面の12項目の下の右側に「登録する」ボタンがある</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント更新確認画面中央右側にある1番上の欄を確認</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -20110,10 +20094,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③/196</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント削除確認画面からアカウント削除画面へ移行されている</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -20434,6 +20414,91 @@
   </si>
   <si>
     <t>9-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の入力欄に「あああああああああいい」と入力</t>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力欄に「aZ8@-m1XqL-0t@7JrK5fG-2wHsYd@9cV6Bn0@M4pQzR-T8uUe@aZ8@-m1XqL-0t@7JrK5fG-2wHsYd@9cV6Bn0@M4pQzR-T8uUe@@@」と入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の入力欄に「12345678」と入力</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）プルダウンの逆三角形のところ押して石川県と青森県を選択</t>
+    <rPh sb="25" eb="28">
+      <t>イシカワケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アオモリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面の12項目の下の右側に「更新する」ボタンがある</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12項目の下の右側にある「更新する」ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要修正</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のエラーになる</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③要修正3/196</t>
+    <rPh sb="1" eb="4">
+      <t>ヨウシュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -20617,7 +20682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -20812,18 +20877,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -20854,6 +20907,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21121,8 +21178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -21354,7 +21411,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="C13" s="2" t="s">
-        <v>1422</v>
+        <v>1444</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -21450,8 +21507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768991BB-26A1-401A-B641-5DABCE72A30E}">
   <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -21565,10 +21622,10 @@
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="19" t="s">
@@ -21598,10 +21655,10 @@
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="19" t="s">
@@ -21631,10 +21688,10 @@
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="56.25">
       <c r="A6" s="19" t="s">
@@ -21664,10 +21721,10 @@
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="71"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
       <c r="A7" s="19" t="s">
@@ -21697,10 +21754,10 @@
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="56.25">
       <c r="A8" s="19" t="s">
@@ -21730,10 +21787,10 @@
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K8" s="71"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="56.25">
       <c r="A9" s="19" t="s">
@@ -21763,10 +21820,10 @@
       <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K9" s="71"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="56.25">
       <c r="A10" s="19" t="s">
@@ -21796,10 +21853,10 @@
       <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="71"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="56.25">
       <c r="A11" s="19" t="s">
@@ -21829,10 +21886,10 @@
       <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K11" s="71"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="56.25">
       <c r="A12" s="19" t="s">
@@ -21862,10 +21919,10 @@
       <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="71"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="56.25">
       <c r="A13" s="19" t="s">
@@ -21895,10 +21952,10 @@
       <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K13" s="71"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="56.25">
       <c r="A14" s="19" t="s">
@@ -21928,10 +21985,10 @@
       <c r="I14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K14" s="71"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="56.25">
       <c r="A15" s="19" t="s">
@@ -21961,10 +22018,10 @@
       <c r="I15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="71"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="56.25">
       <c r="A16" s="19" t="s">
@@ -21994,10 +22051,10 @@
       <c r="I16" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="71"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="56.25">
       <c r="A17" s="19" t="s">
@@ -22027,10 +22084,10 @@
       <c r="I17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="71"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="56.25">
       <c r="A18" s="19" t="s">
@@ -22060,10 +22117,10 @@
       <c r="I18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K18" s="71"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="56.25">
       <c r="A19" s="19" t="s">
@@ -22093,10 +22150,10 @@
       <c r="I19" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="70" t="s">
+      <c r="J19" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K19" s="71"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="56.25">
       <c r="A20" s="19" t="s">
@@ -22126,10 +22183,10 @@
       <c r="I20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="56.25">
       <c r="A21" s="19" t="s">
@@ -22159,10 +22216,10 @@
       <c r="I21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K21" s="71"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="56.25">
       <c r="A22" s="19" t="s">
@@ -22192,10 +22249,10 @@
       <c r="I22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K22" s="71"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="56.25">
       <c r="A23" s="19" t="s">
@@ -22225,10 +22282,10 @@
       <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="71"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="56.25">
       <c r="A24" s="19" t="s">
@@ -22258,10 +22315,10 @@
       <c r="I24" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K24" s="71"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="56.25">
       <c r="A25" s="19" t="s">
@@ -22291,10 +22348,10 @@
       <c r="I25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K25" s="71"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="56.25">
       <c r="A26" s="19" t="s">
@@ -22324,10 +22381,10 @@
       <c r="I26" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K26" s="71"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="56.25">
       <c r="A27" s="19" t="s">
@@ -22357,10 +22414,10 @@
       <c r="I27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K27" s="71"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="56.25">
       <c r="A28" s="19" t="s">
@@ -22390,10 +22447,10 @@
       <c r="I28" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K28" s="71"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="75">
       <c r="A29" s="19" t="s">
@@ -22423,10 +22480,10 @@
       <c r="I29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="71"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="56.25">
       <c r="A30" s="19" t="s">
@@ -22456,10 +22513,10 @@
       <c r="I30" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K30" s="71"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="37.5">
       <c r="A31" s="19" t="s">
@@ -22489,10 +22546,10 @@
       <c r="I31" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K31" s="71"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="56.25">
       <c r="A32" s="19" t="s">
@@ -22511,17 +22568,21 @@
         <v>346</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>334</v>
+        <v>1435</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="5">
+        <v>45911</v>
+      </c>
       <c r="I32" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="70"/>
-      <c r="K32" s="71"/>
+      <c r="J32" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="56.25">
       <c r="A33" s="19" t="s">
@@ -22545,12 +22606,16 @@
       <c r="G33" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="5">
+        <v>45911</v>
+      </c>
       <c r="I33" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="70"/>
-      <c r="K33" s="71"/>
+      <c r="J33" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="56.25">
       <c r="A34" s="19" t="s">
@@ -22574,12 +22639,16 @@
       <c r="G34" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5">
+        <v>45911</v>
+      </c>
       <c r="I34" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="70"/>
-      <c r="K34" s="71"/>
+      <c r="J34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="56.25">
       <c r="A35" s="19" t="s">
@@ -22603,12 +22672,16 @@
       <c r="G35" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="5">
+        <v>45911</v>
+      </c>
       <c r="I35" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
+      <c r="J35" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="56.25">
       <c r="A36" s="19" t="s">
@@ -22632,12 +22705,16 @@
       <c r="G36" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5">
+        <v>45911</v>
+      </c>
       <c r="I36" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="70"/>
-      <c r="K36" s="71"/>
+      <c r="J36" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="56.25">
       <c r="A37" s="19" t="s">
@@ -22661,12 +22738,16 @@
       <c r="G37" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5">
+        <v>45911</v>
+      </c>
       <c r="I37" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="71"/>
+      <c r="J37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="56.25">
       <c r="A38" s="19" t="s">
@@ -22690,12 +22771,16 @@
       <c r="G38" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5">
+        <v>45911</v>
+      </c>
       <c r="I38" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="70"/>
-      <c r="K38" s="71"/>
+      <c r="J38" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="56.25">
       <c r="A39" s="19" t="s">
@@ -22719,12 +22804,16 @@
       <c r="G39" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="5">
+        <v>45911</v>
+      </c>
       <c r="I39" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J39" s="70"/>
-      <c r="K39" s="71"/>
+      <c r="J39" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="150">
       <c r="A40" s="19" t="s">
@@ -22743,17 +22832,21 @@
         <v>341</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>361</v>
+        <v>1436</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5">
+        <v>45911</v>
+      </c>
       <c r="I40" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="71"/>
+      <c r="J40" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="37.5">
       <c r="A41" s="19" t="s">
@@ -22777,12 +22870,16 @@
       <c r="G41" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5">
+        <v>45911</v>
+      </c>
       <c r="I41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J41" s="70"/>
-      <c r="K41" s="71"/>
+      <c r="J41" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="37.5">
       <c r="A42" s="19" t="s">
@@ -22801,17 +22898,21 @@
         <v>339</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>363</v>
+        <v>1437</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5">
+        <v>45911</v>
+      </c>
       <c r="I42" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J42" s="70"/>
-      <c r="K42" s="71"/>
+      <c r="J42" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="75">
       <c r="A43" s="19" t="s">
@@ -22835,12 +22936,16 @@
       <c r="G43" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="5">
+        <v>45911</v>
+      </c>
       <c r="I43" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="71"/>
+      <c r="J43" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="56.25">
       <c r="A44" s="19" t="s">
@@ -22859,17 +22964,21 @@
         <v>366</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>367</v>
+        <v>1438</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5">
+        <v>45911</v>
+      </c>
       <c r="I44" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J44" s="70"/>
-      <c r="K44" s="71"/>
+      <c r="J44" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="56.25">
       <c r="A45" s="19" t="s">
@@ -22893,12 +23002,16 @@
       <c r="G45" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5">
+        <v>45911</v>
+      </c>
       <c r="I45" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J45" s="70"/>
-      <c r="K45" s="71"/>
+      <c r="J45" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="56.25">
       <c r="A46" s="19" t="s">
@@ -22922,12 +23035,16 @@
       <c r="G46" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="5">
+        <v>45911</v>
+      </c>
       <c r="I46" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="71"/>
+      <c r="J46" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="56.25">
       <c r="A47" s="19" t="s">
@@ -22951,12 +23068,16 @@
       <c r="G47" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="5">
+        <v>45911</v>
+      </c>
       <c r="I47" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J47" s="70"/>
-      <c r="K47" s="71"/>
+      <c r="J47" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="56.25">
       <c r="A48" s="19" t="s">
@@ -22980,12 +23101,16 @@
       <c r="G48" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5">
+        <v>45911</v>
+      </c>
       <c r="I48" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J48" s="70"/>
-      <c r="K48" s="71"/>
+      <c r="J48" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="56.25">
       <c r="A49" s="19" t="s">
@@ -23009,12 +23134,16 @@
       <c r="G49" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="5">
+        <v>45911</v>
+      </c>
       <c r="I49" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J49" s="70"/>
-      <c r="K49" s="71"/>
+      <c r="J49" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="56.25">
       <c r="A50" s="19" t="s">
@@ -23038,12 +23167,16 @@
       <c r="G50" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="5">
+        <v>45911</v>
+      </c>
       <c r="I50" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="71"/>
+      <c r="J50" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="187.5">
       <c r="A51" s="19" t="s">
@@ -23067,12 +23200,16 @@
       <c r="G51" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5">
+        <v>45911</v>
+      </c>
       <c r="I51" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J51" s="70"/>
-      <c r="K51" s="71"/>
+      <c r="J51" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="187.5">
       <c r="A52" s="19" t="s">
@@ -23096,12 +23233,16 @@
       <c r="G52" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5">
+        <v>45911</v>
+      </c>
       <c r="I52" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J52" s="70"/>
-      <c r="K52" s="71"/>
+      <c r="J52" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="112.5">
       <c r="A53" s="19" t="s">
@@ -23125,12 +23266,16 @@
       <c r="G53" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="5">
+        <v>45911</v>
+      </c>
       <c r="I53" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="70"/>
-      <c r="K53" s="71"/>
+      <c r="J53" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="187.5">
       <c r="A54" s="19" t="s">
@@ -23154,12 +23299,16 @@
       <c r="G54" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5">
+        <v>45911</v>
+      </c>
       <c r="I54" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J54" s="70"/>
-      <c r="K54" s="71"/>
+      <c r="J54" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="187.5">
       <c r="A55" s="19" t="s">
@@ -23183,12 +23332,16 @@
       <c r="G55" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="5">
+        <v>45911</v>
+      </c>
       <c r="I55" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J55" s="70"/>
-      <c r="K55" s="71"/>
+      <c r="J55" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="187.5">
       <c r="A56" s="19" t="s">
@@ -23212,12 +23365,16 @@
       <c r="G56" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H56" s="5"/>
+      <c r="H56" s="5">
+        <v>45911</v>
+      </c>
       <c r="I56" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="70"/>
-      <c r="K56" s="71"/>
+      <c r="J56" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="56.25">
       <c r="A57" s="19" t="s">
@@ -23241,12 +23398,16 @@
       <c r="G57" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="5">
+        <v>45911</v>
+      </c>
       <c r="I57" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="70"/>
-      <c r="K57" s="71"/>
+      <c r="J57" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="56.25">
       <c r="A58" s="19" t="s">
@@ -23270,12 +23431,16 @@
       <c r="G58" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5">
+        <v>45911</v>
+      </c>
       <c r="I58" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J58" s="72"/>
-      <c r="K58" s="71"/>
+      <c r="J58" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" ht="56.25">
       <c r="A59" s="19" t="s">
@@ -23299,12 +23464,16 @@
       <c r="G59" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H59" s="5"/>
+      <c r="H59" s="5">
+        <v>45911</v>
+      </c>
       <c r="I59" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J59" s="72"/>
-      <c r="K59" s="71"/>
+      <c r="J59" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="56.25">
       <c r="A60" s="19" t="s">
@@ -23328,12 +23497,16 @@
       <c r="G60" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H60" s="5"/>
+      <c r="H60" s="5">
+        <v>45911</v>
+      </c>
       <c r="I60" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J60" s="72"/>
-      <c r="K60" s="71"/>
+      <c r="J60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" ht="56.25">
       <c r="A61" s="19" t="s">
@@ -23357,12 +23530,16 @@
       <c r="G61" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H61" s="5"/>
+      <c r="H61" s="5">
+        <v>45911</v>
+      </c>
       <c r="I61" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J61" s="72"/>
-      <c r="K61" s="71"/>
+      <c r="J61" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" ht="56.25">
       <c r="A62" s="19" t="s">
@@ -23386,12 +23563,16 @@
       <c r="G62" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H62" s="5"/>
+      <c r="H62" s="5">
+        <v>45911</v>
+      </c>
       <c r="I62" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J62" s="72"/>
-      <c r="K62" s="71"/>
+      <c r="J62" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" ht="56.25">
       <c r="A63" s="19" t="s">
@@ -23415,12 +23596,16 @@
       <c r="G63" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H63" s="5"/>
+      <c r="H63" s="5">
+        <v>45911</v>
+      </c>
       <c r="I63" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J63" s="72"/>
-      <c r="K63" s="71"/>
+      <c r="J63" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" ht="56.25">
       <c r="A64" s="19" t="s">
@@ -23444,12 +23629,16 @@
       <c r="G64" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H64" s="5"/>
+      <c r="H64" s="5">
+        <v>45911</v>
+      </c>
       <c r="I64" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J64" s="72"/>
-      <c r="K64" s="71"/>
+      <c r="J64" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" ht="75">
       <c r="A65" s="19" t="s">
@@ -23473,12 +23662,16 @@
       <c r="G65" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H65" s="5"/>
+      <c r="H65" s="5">
+        <v>45911</v>
+      </c>
       <c r="I65" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J65" s="72"/>
-      <c r="K65" s="71"/>
+      <c r="J65" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" ht="56.25">
       <c r="A66" s="19" t="s">
@@ -23502,12 +23695,16 @@
       <c r="G66" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="5">
+        <v>45911</v>
+      </c>
       <c r="I66" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J66" s="72"/>
-      <c r="K66" s="71"/>
+      <c r="J66" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="56.25">
       <c r="A67" s="19" t="s">
@@ -23531,12 +23728,16 @@
       <c r="G67" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H67" s="5"/>
+      <c r="H67" s="5">
+        <v>45911</v>
+      </c>
       <c r="I67" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J67" s="72"/>
-      <c r="K67" s="71"/>
+      <c r="J67" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" ht="56.25">
       <c r="A68" s="19" t="s">
@@ -23560,12 +23761,16 @@
       <c r="G68" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5">
+        <v>45911</v>
+      </c>
       <c r="I68" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J68" s="72"/>
-      <c r="K68" s="71"/>
+      <c r="J68" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" ht="56.25">
       <c r="A69" s="19" t="s">
@@ -23589,12 +23794,16 @@
       <c r="G69" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H69" s="5"/>
+      <c r="H69" s="5">
+        <v>45911</v>
+      </c>
       <c r="I69" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J69" s="72"/>
-      <c r="K69" s="71"/>
+      <c r="J69" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" ht="56.25">
       <c r="A70" s="19" t="s">
@@ -23618,12 +23827,16 @@
       <c r="G70" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H70" s="5"/>
+      <c r="H70" s="5">
+        <v>45911</v>
+      </c>
       <c r="I70" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J70" s="72"/>
-      <c r="K70" s="71"/>
+      <c r="J70" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" ht="56.25">
       <c r="A71" s="19" t="s">
@@ -23647,12 +23860,16 @@
       <c r="G71" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H71" s="5"/>
+      <c r="H71" s="5">
+        <v>45911</v>
+      </c>
       <c r="I71" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J71" s="72"/>
-      <c r="K71" s="71"/>
+      <c r="J71" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" ht="75">
       <c r="A72" s="19" t="s">
@@ -23676,12 +23893,16 @@
       <c r="G72" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H72" s="5"/>
+      <c r="H72" s="5">
+        <v>45911</v>
+      </c>
       <c r="I72" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J72" s="72"/>
-      <c r="K72" s="71"/>
+      <c r="J72" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" ht="56.25">
       <c r="A73" s="19" t="s">
@@ -23705,12 +23926,16 @@
       <c r="G73" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="5">
+        <v>45911</v>
+      </c>
       <c r="I73" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J73" s="72"/>
-      <c r="K73" s="71"/>
+      <c r="J73" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" ht="56.25">
       <c r="A74" s="19" t="s">
@@ -23734,12 +23959,16 @@
       <c r="G74" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H74" s="5"/>
+      <c r="H74" s="5">
+        <v>45911</v>
+      </c>
       <c r="I74" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J74" s="72"/>
-      <c r="K74" s="71"/>
+      <c r="J74" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11" ht="93.75">
       <c r="A75" s="19" t="s">
@@ -23763,12 +23992,16 @@
       <c r="G75" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5">
+        <v>45911</v>
+      </c>
       <c r="I75" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J75" s="72"/>
-      <c r="K75" s="71"/>
+      <c r="J75" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" ht="93.75">
       <c r="A76" s="19" t="s">
@@ -23792,12 +24025,16 @@
       <c r="G76" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H76" s="5"/>
+      <c r="H76" s="5">
+        <v>45911</v>
+      </c>
       <c r="I76" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J76" s="72"/>
-      <c r="K76" s="71"/>
+      <c r="J76" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" s="37" customFormat="1" ht="56.25">
       <c r="A77" s="34" t="s">
@@ -23821,11 +24058,15 @@
       <c r="G77" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H77" s="32"/>
+      <c r="H77" s="32">
+        <v>45911</v>
+      </c>
       <c r="I77" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J77" s="36"/>
+      <c r="J77" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K77" s="35"/>
     </row>
     <row r="78" spans="1:11" ht="56.25">
@@ -23850,12 +24091,16 @@
       <c r="G78" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H78" s="5"/>
+      <c r="H78" s="5">
+        <v>45911</v>
+      </c>
       <c r="I78" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J78" s="70"/>
-      <c r="K78" s="71"/>
+      <c r="J78" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" ht="56.25">
       <c r="A79" s="19" t="s">
@@ -23879,12 +24124,16 @@
       <c r="G79" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H79" s="5"/>
+      <c r="H79" s="5">
+        <v>45911</v>
+      </c>
       <c r="I79" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J79" s="70"/>
-      <c r="K79" s="71"/>
+      <c r="J79" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K79" s="3"/>
     </row>
     <row r="80" spans="1:11" ht="56.25">
       <c r="A80" s="19" t="s">
@@ -23908,12 +24157,16 @@
       <c r="G80" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H80" s="5"/>
+      <c r="H80" s="5">
+        <v>45911</v>
+      </c>
       <c r="I80" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J80" s="70"/>
-      <c r="K80" s="71"/>
+      <c r="J80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" ht="56.25">
       <c r="A81" s="19" t="s">
@@ -23937,12 +24190,16 @@
       <c r="G81" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H81" s="5"/>
+      <c r="H81" s="5">
+        <v>45911</v>
+      </c>
       <c r="I81" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J81" s="70"/>
-      <c r="K81" s="71"/>
+      <c r="J81" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" ht="56.25">
       <c r="A82" s="19" t="s">
@@ -23966,12 +24223,16 @@
       <c r="G82" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H82" s="5"/>
+      <c r="H82" s="5">
+        <v>45911</v>
+      </c>
       <c r="I82" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J82" s="70"/>
-      <c r="K82" s="71"/>
+      <c r="J82" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:11" ht="56.25">
       <c r="A83" s="19" t="s">
@@ -23995,12 +24256,16 @@
       <c r="G83" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="5">
+        <v>45911</v>
+      </c>
       <c r="I83" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J83" s="70"/>
-      <c r="K83" s="71"/>
+      <c r="J83" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:11" ht="37.5">
       <c r="A84" s="19" t="s">
@@ -24024,12 +24289,16 @@
       <c r="G84" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="5">
+        <v>45911</v>
+      </c>
       <c r="I84" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J84" s="70"/>
-      <c r="K84" s="71"/>
+      <c r="J84" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:11" ht="56.25">
       <c r="A85" s="19" t="s">
@@ -24053,12 +24322,16 @@
       <c r="G85" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="5">
+        <v>45911</v>
+      </c>
       <c r="I85" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J85" s="70"/>
-      <c r="K85" s="71"/>
+      <c r="J85" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11" ht="56.25">
       <c r="A86" s="19" t="s">
@@ -24082,12 +24355,16 @@
       <c r="G86" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H86" s="5"/>
+      <c r="H86" s="5">
+        <v>45911</v>
+      </c>
       <c r="I86" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J86" s="70"/>
-      <c r="K86" s="71"/>
+      <c r="J86" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="1:11" ht="56.25">
       <c r="A87" s="19" t="s">
@@ -24111,12 +24388,16 @@
       <c r="G87" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H87" s="5"/>
+      <c r="H87" s="5">
+        <v>45911</v>
+      </c>
       <c r="I87" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J87" s="70"/>
-      <c r="K87" s="71"/>
+      <c r="J87" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="1:11" ht="56.25">
       <c r="A88" s="19" t="s">
@@ -24140,12 +24421,16 @@
       <c r="G88" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H88" s="5"/>
+      <c r="H88" s="5">
+        <v>45911</v>
+      </c>
       <c r="I88" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J88" s="70"/>
-      <c r="K88" s="71"/>
+      <c r="J88" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K88" s="3"/>
     </row>
     <row r="89" spans="1:11" ht="56.25">
       <c r="A89" s="19" t="s">
@@ -24169,350 +24454,276 @@
       <c r="G89" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H89" s="5"/>
+      <c r="H89" s="5">
+        <v>45911</v>
+      </c>
       <c r="I89" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J89" s="70"/>
-      <c r="K89" s="71"/>
+      <c r="J89" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K89" s="3"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="J90" s="73"/>
-      <c r="K90" s="73"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="J92" s="73"/>
-      <c r="K92" s="73"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="J93" s="73"/>
-      <c r="K93" s="73"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="J94" s="73"/>
-      <c r="K94" s="73"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="J95" s="73"/>
-      <c r="K95" s="73"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="J96" s="73"/>
-      <c r="K96" s="73"/>
-    </row>
-    <row r="97" spans="10:11">
-      <c r="J97" s="73"/>
-      <c r="K97" s="73"/>
-    </row>
-    <row r="98" spans="10:11">
-      <c r="J98" s="73"/>
-      <c r="K98" s="73"/>
-    </row>
-    <row r="99" spans="10:11">
-      <c r="J99" s="73"/>
-      <c r="K99" s="73"/>
-    </row>
-    <row r="100" spans="10:11">
-      <c r="J100" s="73"/>
-      <c r="K100" s="73"/>
-    </row>
-    <row r="101" spans="10:11">
-      <c r="J101" s="73"/>
-      <c r="K101" s="73"/>
-    </row>
-    <row r="102" spans="10:11">
-      <c r="J102" s="73"/>
-      <c r="K102" s="73"/>
-    </row>
-    <row r="103" spans="10:11">
-      <c r="J103" s="73"/>
-      <c r="K103" s="73"/>
-    </row>
-    <row r="104" spans="10:11">
-      <c r="J104" s="73"/>
-      <c r="K104" s="73"/>
-    </row>
-    <row r="105" spans="10:11">
-      <c r="J105" s="73"/>
-      <c r="K105" s="73"/>
-    </row>
-    <row r="106" spans="10:11">
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
-    </row>
-    <row r="107" spans="10:11">
-      <c r="J107" s="73"/>
-      <c r="K107" s="73"/>
-    </row>
-    <row r="108" spans="10:11">
-      <c r="J108" s="73"/>
-      <c r="K108" s="73"/>
-    </row>
-    <row r="109" spans="10:11">
-      <c r="J109" s="73"/>
-      <c r="K109" s="73"/>
-    </row>
-    <row r="110" spans="10:11">
-      <c r="J110" s="73"/>
-      <c r="K110" s="73"/>
-    </row>
-    <row r="111" spans="10:11">
-      <c r="J111" s="73"/>
-      <c r="K111" s="73"/>
-    </row>
-    <row r="112" spans="10:11">
-      <c r="J112" s="73"/>
-      <c r="K112" s="73"/>
-    </row>
-    <row r="113" spans="10:11">
-      <c r="J113" s="73"/>
-      <c r="K113" s="73"/>
-    </row>
-    <row r="114" spans="10:11">
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
-    </row>
-    <row r="115" spans="10:11">
-      <c r="J115" s="73"/>
-      <c r="K115" s="73"/>
-    </row>
-    <row r="116" spans="10:11">
-      <c r="J116" s="73"/>
-      <c r="K116" s="73"/>
-    </row>
-    <row r="117" spans="10:11">
-      <c r="J117" s="73"/>
-      <c r="K117" s="73"/>
-    </row>
-    <row r="118" spans="10:11">
-      <c r="J118" s="73"/>
-      <c r="K118" s="73"/>
-    </row>
-    <row r="119" spans="10:11">
-      <c r="J119" s="73"/>
-      <c r="K119" s="73"/>
-    </row>
-    <row r="120" spans="10:11">
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
-    </row>
-    <row r="121" spans="10:11">
-      <c r="J121" s="73"/>
-      <c r="K121" s="73"/>
-    </row>
-    <row r="122" spans="10:11">
-      <c r="J122" s="73"/>
-      <c r="K122" s="73"/>
-    </row>
-    <row r="123" spans="10:11">
-      <c r="J123" s="73"/>
-      <c r="K123" s="73"/>
-    </row>
-    <row r="124" spans="10:11">
-      <c r="J124" s="73"/>
-      <c r="K124" s="73"/>
-    </row>
-    <row r="125" spans="10:11">
-      <c r="J125" s="73"/>
-      <c r="K125" s="73"/>
-    </row>
-    <row r="126" spans="10:11">
-      <c r="J126" s="73"/>
-      <c r="K126" s="73"/>
-    </row>
-    <row r="127" spans="10:11">
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-    </row>
-    <row r="128" spans="10:11">
-      <c r="J128" s="73"/>
-      <c r="K128" s="73"/>
-    </row>
-    <row r="129" spans="10:11">
-      <c r="J129" s="73"/>
-      <c r="K129" s="73"/>
-    </row>
-    <row r="130" spans="10:11">
-      <c r="J130" s="73"/>
-      <c r="K130" s="73"/>
-    </row>
-    <row r="131" spans="10:11">
-      <c r="J131" s="73"/>
-      <c r="K131" s="73"/>
-    </row>
-    <row r="132" spans="10:11">
-      <c r="J132" s="73"/>
-      <c r="K132" s="73"/>
-    </row>
-    <row r="133" spans="10:11">
-      <c r="J133" s="73"/>
-      <c r="K133" s="73"/>
-    </row>
-    <row r="134" spans="10:11">
-      <c r="J134" s="73"/>
-      <c r="K134" s="73"/>
-    </row>
-    <row r="135" spans="10:11">
-      <c r="J135" s="73"/>
-      <c r="K135" s="73"/>
-    </row>
-    <row r="136" spans="10:11">
-      <c r="J136" s="73"/>
-      <c r="K136" s="73"/>
-    </row>
-    <row r="137" spans="10:11">
-      <c r="J137" s="73"/>
-      <c r="K137" s="73"/>
-    </row>
-    <row r="138" spans="10:11">
-      <c r="J138" s="73"/>
-      <c r="K138" s="73"/>
-    </row>
-    <row r="139" spans="10:11">
-      <c r="J139" s="73"/>
-      <c r="K139" s="73"/>
-    </row>
-    <row r="140" spans="10:11">
-      <c r="J140" s="73"/>
-      <c r="K140" s="73"/>
-    </row>
-    <row r="141" spans="10:11">
-      <c r="J141" s="73"/>
-      <c r="K141" s="73"/>
-    </row>
-    <row r="142" spans="10:11">
-      <c r="J142" s="73"/>
-      <c r="K142" s="73"/>
-    </row>
-    <row r="143" spans="10:11">
-      <c r="J143" s="73"/>
-      <c r="K143" s="73"/>
-    </row>
-    <row r="144" spans="10:11">
-      <c r="J144" s="73"/>
-      <c r="K144" s="73"/>
-    </row>
-    <row r="145" spans="10:11">
-      <c r="J145" s="73"/>
-      <c r="K145" s="73"/>
-    </row>
-    <row r="146" spans="10:11">
-      <c r="J146" s="73"/>
-      <c r="K146" s="73"/>
-    </row>
-    <row r="147" spans="10:11">
-      <c r="J147" s="73"/>
-      <c r="K147" s="73"/>
-    </row>
-    <row r="148" spans="10:11">
-      <c r="J148" s="73"/>
-      <c r="K148" s="73"/>
-    </row>
-    <row r="149" spans="10:11">
-      <c r="J149" s="73"/>
-      <c r="K149" s="73"/>
-    </row>
-    <row r="150" spans="10:11">
-      <c r="J150" s="73"/>
-      <c r="K150" s="73"/>
-    </row>
-    <row r="151" spans="10:11">
-      <c r="J151" s="73"/>
-      <c r="K151" s="73"/>
-    </row>
-    <row r="152" spans="10:11">
-      <c r="J152" s="73"/>
-      <c r="K152" s="73"/>
-    </row>
-    <row r="153" spans="10:11">
-      <c r="J153" s="73"/>
-      <c r="K153" s="73"/>
-    </row>
-    <row r="154" spans="10:11">
-      <c r="J154" s="73"/>
-      <c r="K154" s="73"/>
-    </row>
-    <row r="155" spans="10:11">
-      <c r="J155" s="73"/>
-      <c r="K155" s="73"/>
-    </row>
-    <row r="156" spans="10:11">
-      <c r="J156" s="73"/>
-      <c r="K156" s="73"/>
-    </row>
-    <row r="157" spans="10:11">
-      <c r="J157" s="73"/>
-      <c r="K157" s="73"/>
-    </row>
-    <row r="158" spans="10:11">
-      <c r="J158" s="73"/>
-      <c r="K158" s="73"/>
-    </row>
-    <row r="159" spans="10:11">
-      <c r="J159" s="73"/>
-      <c r="K159" s="73"/>
-    </row>
-    <row r="160" spans="10:11">
-      <c r="J160" s="73"/>
-      <c r="K160" s="73"/>
-    </row>
-    <row r="161" spans="10:11">
-      <c r="J161" s="73"/>
-      <c r="K161" s="73"/>
-    </row>
-    <row r="162" spans="10:11">
-      <c r="J162" s="73"/>
-      <c r="K162" s="73"/>
-    </row>
-    <row r="163" spans="10:11">
-      <c r="J163" s="73"/>
-      <c r="K163" s="73"/>
-    </row>
-    <row r="164" spans="10:11">
-      <c r="J164" s="73"/>
-      <c r="K164" s="73"/>
-    </row>
-    <row r="165" spans="10:11">
-      <c r="J165" s="73"/>
-      <c r="K165" s="73"/>
-    </row>
-    <row r="166" spans="10:11">
-      <c r="J166" s="73"/>
-      <c r="K166" s="73"/>
-    </row>
-    <row r="167" spans="10:11">
-      <c r="J167" s="73"/>
-      <c r="K167" s="73"/>
-    </row>
-    <row r="168" spans="10:11">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" s="4"/>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="11:11">
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" spans="11:11">
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="11:11">
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="11:11">
+      <c r="K164" s="4"/>
+    </row>
+    <row r="165" spans="11:11">
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="11:11">
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" spans="11:11">
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="11:11">
       <c r="K168" s="4"/>
     </row>
-    <row r="169" spans="10:11">
+    <row r="169" spans="11:11">
       <c r="K169" s="4"/>
     </row>
-    <row r="170" spans="10:11">
+    <row r="170" spans="11:11">
       <c r="K170" s="4"/>
     </row>
-    <row r="171" spans="10:11">
+    <row r="171" spans="11:11">
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="10:11">
+    <row r="172" spans="11:11">
       <c r="K172" s="4"/>
     </row>
-    <row r="173" spans="10:11">
+    <row r="173" spans="11:11">
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="10:11">
+    <row r="174" spans="11:11">
       <c r="K174" s="4"/>
     </row>
-    <row r="175" spans="10:11">
+    <row r="175" spans="11:11">
       <c r="K175" s="4"/>
     </row>
-    <row r="176" spans="10:11">
+    <row r="176" spans="11:11">
       <c r="K176" s="4"/>
     </row>
     <row r="177" spans="11:11">
@@ -26060,8 +26271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9DA913-8A95-4C60-A417-FD9A2D0A4D99}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A2:A34"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -26071,9 +26282,9 @@
     <col min="3" max="3" width="57.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="48.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="38" style="25" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.875" style="3" customWidth="1"/>
   </cols>
@@ -26129,24 +26340,28 @@
       <c r="E2" s="35" t="s">
         <v>1120</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="70" t="s">
         <v>1121</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="32">
+        <v>45911</v>
+      </c>
       <c r="I2" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>1439</v>
+      </c>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -26164,16 +26379,21 @@
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45911</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J3" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B4" s="73" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -26191,16 +26411,21 @@
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45911</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J4" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B5" s="73" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -26218,18 +26443,21 @@
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45911</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="J5" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="19" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B6" s="73" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -26247,16 +26475,21 @@
       <c r="G6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>45911</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J6" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="37.5">
       <c r="A7" s="19" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -26274,16 +26507,21 @@
       <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>45911</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J7" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="37.5">
       <c r="A8" s="19" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B8" s="73" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -26301,16 +26539,21 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>45911</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J8" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="37.5">
       <c r="A9" s="19" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B9" s="73" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -26328,18 +26571,21 @@
       <c r="G9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>45911</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
+      <c r="J9" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="37.5">
       <c r="A10" s="19" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B10" s="73" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -26357,16 +26603,21 @@
       <c r="G10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>45911</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J10" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="37.5">
       <c r="A11" s="19" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B11" s="73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -26384,16 +26635,21 @@
       <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>45911</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J11" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="37.5">
       <c r="A12" s="19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B12" s="73" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -26411,16 +26667,21 @@
       <c r="G12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>45911</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J12" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="37.5">
       <c r="A13" s="19" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B13" s="73" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -26438,16 +26699,21 @@
       <c r="G13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>45911</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J13" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="37.5">
       <c r="A14" s="19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B14" s="73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -26465,16 +26731,21 @@
       <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>45911</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J14" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="37.5">
       <c r="A15" s="19" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B15" s="73" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -26492,16 +26763,21 @@
       <c r="G15" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>45911</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J15" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="37.5">
       <c r="A16" s="19" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B16" s="73" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -26519,16 +26795,21 @@
       <c r="G16" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>45911</v>
+      </c>
       <c r="I16" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J16" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="37.5">
       <c r="A17" s="19" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B17" s="73" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -26546,16 +26827,21 @@
       <c r="G17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>45911</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J17" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="37.5">
       <c r="A18" s="19" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B18" s="73" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -26568,21 +26854,26 @@
         <v>1168</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <v>45911</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J18" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="37.5">
       <c r="A19" s="19" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B19" s="73" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -26595,21 +26886,26 @@
         <v>1169</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>45911</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J19" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="37.5">
       <c r="A20" s="19" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B20" s="73" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -26622,21 +26918,26 @@
         <v>1170</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>45911</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J20" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="37.5">
       <c r="A21" s="19" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B21" s="73" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -26649,23 +26950,26 @@
         <v>1171</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <v>45911</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
+      <c r="J21" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="37.5">
       <c r="A22" s="19" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B22" s="73" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -26683,16 +26987,21 @@
       <c r="G22" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5">
+        <v>45911</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J22" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="37.5">
       <c r="A23" s="19" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B23" s="73" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -26710,16 +27019,21 @@
       <c r="G23" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>45911</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J23" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="37.5">
       <c r="A24" s="19" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B24" s="73" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -26737,16 +27051,21 @@
       <c r="G24" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>45911</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J24" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="37.5">
       <c r="A25" s="19" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B25" s="73" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -26764,16 +27083,21 @@
       <c r="G25" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <v>45911</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J25" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="37.5">
       <c r="A26" s="19" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B26" s="73" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -26791,16 +27115,21 @@
       <c r="G26" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>45911</v>
+      </c>
       <c r="I26" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J26" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="37.5">
       <c r="A27" s="19" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B27" s="73" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -26818,16 +27147,21 @@
       <c r="G27" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>45911</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J27" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="37.5">
       <c r="A28" s="19" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B28" s="73" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -26845,16 +27179,21 @@
       <c r="G28" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>45911</v>
+      </c>
       <c r="I28" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J28" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="37.5">
       <c r="A29" s="19" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B29" s="73" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -26872,18 +27211,21 @@
       <c r="G29" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="5">
+        <v>45911</v>
+      </c>
       <c r="I29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
+      <c r="J29" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="37.5">
       <c r="A30" s="19" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B30" s="73" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -26896,21 +27238,26 @@
         <v>1179</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>45911</v>
+      </c>
       <c r="I30" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J30" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="37.5">
       <c r="A31" s="19" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B31" s="73" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -26920,34 +27267,39 @@
         <v>1180</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1181</v>
+        <v>1440</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>45911</v>
+      </c>
       <c r="I31" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J31" s="8" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A32" s="34" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>534</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>536</v>
@@ -26955,45 +27307,53 @@
       <c r="G32" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="32">
+        <v>45911</v>
+      </c>
       <c r="I32" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="36"/>
+      <c r="J32" s="36" t="s">
+        <v>1439</v>
+      </c>
       <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" s="37" customFormat="1" ht="56.25">
       <c r="A33" s="34" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>535</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>537</v>
+        <v>1441</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="32">
+        <v>45911</v>
+      </c>
       <c r="I33" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="70"/>
-      <c r="K33" s="71"/>
+      <c r="J33" s="36" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="56.25">
       <c r="A34" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1117</v>
@@ -27013,9 +27373,17 @@
       <c r="G34" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5">
+        <v>45911</v>
+      </c>
       <c r="I34" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -27046,7 +27414,7 @@
   <dimension ref="A1:K658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -27057,9 +27425,9 @@
     <col min="4" max="4" width="52.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27100,129 +27468,145 @@
     </row>
     <row r="2" spans="1:11" ht="56.25">
       <c r="A2" s="21" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="24" t="s">
         <v>1231</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>1232</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <v>45911</v>
+      </c>
       <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="21" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>554</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>45911</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>45911</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="56.25">
       <c r="A5" s="21" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>560</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>45911</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A6" s="44" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>562</v>
@@ -27236,11 +27620,15 @@
       <c r="G6" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="32">
+        <v>45911</v>
+      </c>
       <c r="I6" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11">
@@ -35605,8 +35993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75208E-756F-417E-A771-63BEC3039981}">
   <dimension ref="A1:K688"/>
   <sheetViews>
-    <sheetView topLeftCell="F60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H61" sqref="H56:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -37231,7 +37619,9 @@
       <c r="G49" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H49" s="66"/>
+      <c r="H49" s="74">
+        <v>45910</v>
+      </c>
       <c r="I49" s="67" t="s">
         <v>243</v>
       </c>
@@ -37262,11 +37652,15 @@
       <c r="G50" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H50" s="66"/>
+      <c r="H50" s="74">
+        <v>45910</v>
+      </c>
       <c r="I50" s="67" t="s">
         <v>888</v>
       </c>
-      <c r="J50" s="66"/>
+      <c r="J50" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K50" s="68"/>
     </row>
     <row r="51" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37291,11 +37685,15 @@
       <c r="G51" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="66"/>
+      <c r="H51" s="74">
+        <v>45910</v>
+      </c>
       <c r="I51" s="67" t="s">
         <v>889</v>
       </c>
-      <c r="J51" s="66"/>
+      <c r="J51" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K51" s="68"/>
     </row>
     <row r="52" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37320,11 +37718,15 @@
       <c r="G52" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="66"/>
+      <c r="H52" s="74">
+        <v>45910</v>
+      </c>
       <c r="I52" s="67" t="s">
         <v>890</v>
       </c>
-      <c r="J52" s="66"/>
+      <c r="J52" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K52" s="68"/>
     </row>
     <row r="53" spans="1:11" s="69" customFormat="1" ht="75">
@@ -37349,11 +37751,15 @@
       <c r="G53" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="66"/>
+      <c r="H53" s="74">
+        <v>45910</v>
+      </c>
       <c r="I53" s="67" t="s">
         <v>891</v>
       </c>
-      <c r="J53" s="66"/>
+      <c r="J53" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K53" s="68"/>
     </row>
     <row r="54" spans="1:11" s="69" customFormat="1" ht="75">
@@ -37378,11 +37784,15 @@
       <c r="G54" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H54" s="66"/>
+      <c r="H54" s="74">
+        <v>45910</v>
+      </c>
       <c r="I54" s="67" t="s">
         <v>892</v>
       </c>
-      <c r="J54" s="66"/>
+      <c r="J54" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K54" s="68"/>
     </row>
     <row r="55" spans="1:11" s="69" customFormat="1" ht="75">
@@ -37407,11 +37817,15 @@
       <c r="G55" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H55" s="66"/>
+      <c r="H55" s="74">
+        <v>45910</v>
+      </c>
       <c r="I55" s="67" t="s">
         <v>893</v>
       </c>
-      <c r="J55" s="66"/>
+      <c r="J55" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K55" s="68"/>
     </row>
     <row r="56" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37436,11 +37850,15 @@
       <c r="G56" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H56" s="66"/>
+      <c r="H56" s="74">
+        <v>45910</v>
+      </c>
       <c r="I56" s="67" t="s">
         <v>894</v>
       </c>
-      <c r="J56" s="66"/>
+      <c r="J56" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K56" s="68"/>
     </row>
     <row r="57" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37465,11 +37883,15 @@
       <c r="G57" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H57" s="66"/>
+      <c r="H57" s="74">
+        <v>45910</v>
+      </c>
       <c r="I57" s="67" t="s">
         <v>895</v>
       </c>
-      <c r="J57" s="66"/>
+      <c r="J57" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K57" s="68"/>
     </row>
     <row r="58" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37494,11 +37916,15 @@
       <c r="G58" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H58" s="66"/>
+      <c r="H58" s="74">
+        <v>45910</v>
+      </c>
       <c r="I58" s="67" t="s">
         <v>896</v>
       </c>
-      <c r="J58" s="66"/>
+      <c r="J58" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K58" s="68"/>
     </row>
     <row r="59" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37523,11 +37949,15 @@
       <c r="G59" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H59" s="66"/>
+      <c r="H59" s="74">
+        <v>45910</v>
+      </c>
       <c r="I59" s="67" t="s">
         <v>897</v>
       </c>
-      <c r="J59" s="66"/>
+      <c r="J59" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K59" s="68"/>
     </row>
     <row r="60" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37552,11 +37982,15 @@
       <c r="G60" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H60" s="66"/>
+      <c r="H60" s="74">
+        <v>45910</v>
+      </c>
       <c r="I60" s="67" t="s">
         <v>898</v>
       </c>
-      <c r="J60" s="66"/>
+      <c r="J60" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K60" s="68"/>
     </row>
     <row r="61" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37581,11 +38015,15 @@
       <c r="G61" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H61" s="66"/>
+      <c r="H61" s="74">
+        <v>45910</v>
+      </c>
       <c r="I61" s="67" t="s">
         <v>899</v>
       </c>
-      <c r="J61" s="66"/>
+      <c r="J61" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="K61" s="68"/>
     </row>
     <row r="62" spans="1:11" s="69" customFormat="1" ht="93.75">
@@ -37610,7 +38048,7 @@
       <c r="G62" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H62" s="78">
+      <c r="H62" s="74">
         <v>45910</v>
       </c>
       <c r="I62" s="67" t="s">
@@ -42443,8 +42881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF41CC9-9440-4460-AA74-67B3716224DA}">
   <dimension ref="A1:K690"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:J43"/>
+    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -42531,22 +42969,22 @@
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="19" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B3" s="73" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1342</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1343</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>241</v>
@@ -42557,29 +42995,29 @@
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="19" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B4" s="73" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>241</v>
@@ -42590,29 +43028,29 @@
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="19" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B5" s="73" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>1346</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>241</v>
@@ -42623,29 +43061,29 @@
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="19" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B6" s="73" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>252</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>241</v>
@@ -42656,29 +43094,29 @@
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="37.5">
       <c r="A7" s="19" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>253</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>241</v>
@@ -42689,29 +43127,29 @@
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="37.5">
       <c r="A8" s="19" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B8" s="73" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>241</v>
@@ -42722,29 +43160,29 @@
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="37.5">
       <c r="A9" s="19" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B9" s="73" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>256</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>241</v>
@@ -42755,29 +43193,29 @@
       <c r="I9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K9" s="71"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="37.5">
       <c r="A10" s="19" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B10" s="73" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>257</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>241</v>
@@ -42788,29 +43226,29 @@
       <c r="I10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="37.5">
       <c r="A11" s="19" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B11" s="73" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>241</v>
@@ -42821,29 +43259,29 @@
       <c r="I11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="37.5">
       <c r="A12" s="19" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B12" s="73" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>241</v>
@@ -42854,29 +43292,29 @@
       <c r="I12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="37.5">
       <c r="A13" s="19" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B13" s="73" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>260</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>241</v>
@@ -42887,29 +43325,29 @@
       <c r="I13" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="37.5">
       <c r="A14" s="19" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B14" s="73" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>261</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>241</v>
@@ -42920,29 +43358,29 @@
       <c r="I14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="37.5">
       <c r="A15" s="19" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B15" s="73" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>262</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>241</v>
@@ -42953,29 +43391,29 @@
       <c r="I15" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="37.5">
       <c r="A16" s="19" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B16" s="73" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>241</v>
@@ -42986,29 +43424,29 @@
       <c r="I16" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="37.5">
       <c r="A17" s="19" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B17" s="73" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>264</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>241</v>
@@ -43019,29 +43457,29 @@
       <c r="I17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="37.5">
       <c r="A18" s="19" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B18" s="73" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>241</v>
@@ -43052,29 +43490,29 @@
       <c r="I18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="37.5">
       <c r="A19" s="19" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B19" s="73" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>241</v>
@@ -43085,29 +43523,29 @@
       <c r="I19" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="70" t="s">
+      <c r="J19" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="37.5">
       <c r="A20" s="19" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B20" s="73" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>241</v>
@@ -43118,29 +43556,29 @@
       <c r="I20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="37.5">
       <c r="A21" s="19" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B21" s="73" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>241</v>
@@ -43151,29 +43589,29 @@
       <c r="I21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K21" s="71"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="37.5">
       <c r="A22" s="19" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B22" s="73" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>241</v>
@@ -43184,29 +43622,29 @@
       <c r="I22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="37.5">
       <c r="A23" s="19" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B23" s="73" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>241</v>
@@ -43217,29 +43655,29 @@
       <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="37.5">
       <c r="A24" s="19" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B24" s="73" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>241</v>
@@ -43250,29 +43688,29 @@
       <c r="I24" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="37.5">
       <c r="A25" s="19" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B25" s="73" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>241</v>
@@ -43283,29 +43721,29 @@
       <c r="I25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="37.5">
       <c r="A26" s="19" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B26" s="73" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>241</v>
@@ -43316,29 +43754,29 @@
       <c r="I26" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="37.5">
       <c r="A27" s="19" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B27" s="73" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>241</v>
@@ -43349,29 +43787,29 @@
       <c r="I27" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="37.5">
       <c r="A28" s="19" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B28" s="73" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>241</v>
@@ -43382,29 +43820,29 @@
       <c r="I28" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="56.25">
       <c r="A29" s="19" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B29" s="73" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>241</v>
@@ -43415,29 +43853,29 @@
       <c r="I29" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="71"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="37.5">
       <c r="A30" s="19" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B30" s="73" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>1299</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1300</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>241</v>
@@ -43448,29 +43886,29 @@
       <c r="I30" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="8" t="s">
         <v>245</v>
       </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" s="37" customFormat="1" ht="37.5">
       <c r="A31" s="34" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>1242</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="D31" s="35" t="s">
         <v>1243</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="E31" s="35" t="s">
         <v>1244</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="F31" s="35" t="s">
         <v>1245</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>1246</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>241</v>
@@ -43488,22 +43926,22 @@
     </row>
     <row r="32" spans="1:11" ht="37.5">
       <c r="A32" s="19" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>241</v>
@@ -43514,29 +43952,29 @@
       <c r="I32" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="71"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="37.5">
       <c r="A33" s="19" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>1425</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>241</v>
@@ -43547,29 +43985,29 @@
       <c r="I33" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K33" s="71"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="37.5">
       <c r="A34" s="19" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>241</v>
@@ -43580,29 +44018,29 @@
       <c r="I34" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K34" s="71"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="37.5">
       <c r="A35" s="19" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>241</v>
@@ -43613,29 +44051,29 @@
       <c r="I35" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="J35" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K35" s="71"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="37.5">
       <c r="A36" s="19" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>241</v>
@@ -43646,29 +44084,29 @@
       <c r="I36" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K36" s="71"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="37.5">
       <c r="A37" s="19" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>241</v>
@@ -43679,29 +44117,29 @@
       <c r="I37" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J37" s="70" t="s">
+      <c r="J37" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K37" s="71"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="37.5">
       <c r="A38" s="19" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>241</v>
@@ -43712,29 +44150,29 @@
       <c r="I38" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K38" s="71"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="37.5">
       <c r="A39" s="19" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>241</v>
@@ -43745,29 +44183,29 @@
       <c r="I39" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J39" s="70" t="s">
+      <c r="J39" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K39" s="71"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="37.5">
       <c r="A40" s="19" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>241</v>
@@ -43778,29 +44216,29 @@
       <c r="I40" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="70" t="s">
+      <c r="J40" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K40" s="71"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="37.5">
       <c r="A41" s="19" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>241</v>
@@ -43811,29 +44249,29 @@
       <c r="I41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J41" s="70" t="s">
+      <c r="J41" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K41" s="71"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="37.5">
       <c r="A42" s="19" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>241</v>
@@ -43844,29 +44282,29 @@
       <c r="I42" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J42" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K42" s="71"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="56.25">
       <c r="A43" s="19" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>1420</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>1423</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>241</v>
@@ -43877,10 +44315,10 @@
       <c r="I43" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K43" s="71"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="3"/>
@@ -43951,9 +44389,7 @@
     <row r="50" spans="2:11">
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
-      <c r="J50" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="48"/>
     </row>
     <row r="51" spans="2:11">
@@ -45887,8 +46323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82258A22-625E-48E2-AA3E-1C6F35C7EF2B}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -45945,16 +46381,16 @@
         <v>827</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C2" s="58" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>1337</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="58" t="s">
         <v>1338</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>1339</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>824</v>
@@ -45975,22 +46411,22 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="C3" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1352</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1353</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>241</v>
@@ -46001,29 +46437,28 @@
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B4" s="73" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1352</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>241</v>
@@ -46034,29 +46469,28 @@
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="19" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B5" s="73" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1352</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>1356</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>241</v>
@@ -46067,29 +46501,28 @@
       <c r="I5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="19" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B6" s="73" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1352</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="24" t="s">
         <v>1361</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1362</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>241</v>
@@ -46100,29 +46533,28 @@
       <c r="I6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" ht="56.25">
       <c r="A7" s="19" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1352</v>
-      </c>
       <c r="D7" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>1364</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1365</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>241</v>
@@ -46133,31 +46565,31 @@
       <c r="I7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="K7" s="71" t="s">
-        <v>1407</v>
+      <c r="K7" s="3" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="56.25">
       <c r="A8" s="19" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B8" s="73" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1352</v>
-      </c>
       <c r="D8" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1367</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1368</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>241</v>
@@ -46168,29 +46600,28 @@
       <c r="I8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" s="62" customFormat="1" ht="56.25">
       <c r="A9" s="56" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>1370</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D9" s="58" t="s">
+      <c r="E9" s="58" t="s">
         <v>1371</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>1372</v>
-      </c>
       <c r="F9" s="58" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G9" s="57" t="s">
         <v>241</v>
@@ -46208,22 +46639,22 @@
     </row>
     <row r="10" spans="1:11" s="62" customFormat="1" ht="56.25">
       <c r="A10" s="56" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D10" s="58" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>1374</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>1375</v>
       </c>
       <c r="G10" s="57" t="s">
         <v>241</v>
@@ -46241,7 +46672,7 @@
     </row>
     <row r="11" spans="1:11" ht="56.25">
       <c r="A11" s="19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1117</v>
@@ -46253,17 +46684,25 @@
         <v>173</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>45911</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1443</v>
       </c>
     </row>
   </sheetData>
@@ -46332,23 +46771,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="62" customFormat="1" ht="56.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>1389</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>1390</v>
-      </c>
       <c r="D2" s="58" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>1387</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>1388</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>241</v>
@@ -46366,22 +46805,22 @@
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="21" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1393</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1399</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>241</v>
@@ -46399,22 +46838,22 @@
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="21" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>241</v>
@@ -46432,22 +46871,22 @@
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="21" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1394</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>241</v>
@@ -46465,22 +46904,22 @@
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="21" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>241</v>
@@ -46497,14 +46936,14 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" s="62" customFormat="1" ht="37.5">
-      <c r="A7" s="75" t="s">
-        <v>1436</v>
+      <c r="A7" s="71" t="s">
+        <v>1434</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>562</v>
@@ -46512,7 +46951,7 @@
       <c r="E7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="73" t="s">
         <v>563</v>
       </c>
       <c r="G7" s="57" t="s">

--- a/テスト指示書Ver3.xlsx
+++ b/テスト指示書Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="969" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7013E350-40EA-414E-B3BF-C5ED3BB37FAE}"/>
+  <xr:revisionPtr revIDLastSave="970" documentId="6_{7AA0260D-0D74-4CE8-B7B5-2AE1F46D1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375D5D0C-9786-4EE1-B774-4FE5CAC83F87}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="1446">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -20498,6 +20498,13 @@
     <t>③要修正3/196</t>
     <rPh sb="1" eb="4">
       <t>ヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正済み</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -21178,7 +21185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -46323,8 +46330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82258A22-625E-48E2-AA3E-1C6F35C7EF2B}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -46566,7 +46573,7 @@
         <v>243</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>842</v>
+        <v>1445</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1406</v>
